--- a/pics/pics.xlsx
+++ b/pics/pics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63200241\Desktop\pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\개인별 자료\Nguyen Manh Tri\16-05-2024 Tasks\pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C7E358-E32E-4470-BF3B-3C43EC08271C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E960539-5EF5-4507-A32B-A1E81E889AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24900" yWindow="0" windowWidth="26655" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24630" yWindow="150" windowWidth="26655" windowHeight="20550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,16 +85,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>579047</xdr:colOff>
+      <xdr:colOff>160000</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>150833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E88948-A756-74AC-C27A-90B631B1BB05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD72722-1F50-1480-E8B9-F20FCB06D5F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -111,7 +111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="15819047" cy="12533333"/>
+          <a:ext cx="15400000" cy="12533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -124,21 +124,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>579047</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:colOff>160000</xdr:colOff>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>150833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8235813F-A624-6DAD-DB92-78CC36636A7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F94301-072C-78B0-A0FA-6A7D4EF3A265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -154,8 +154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12954000"/>
-          <a:ext cx="15819047" cy="12533333"/>
+          <a:off x="0" y="13144500"/>
+          <a:ext cx="15400000" cy="12533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -168,21 +168,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>579047</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>150833</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>453104</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>188833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE7CA8C-802A-36B3-EF03-257D3571D4F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A95BE1-0795-A498-C37E-6D5161C68BF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -198,52 +198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25717500"/>
-          <a:ext cx="15819047" cy="12533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>579047</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>150833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FBF273-6383-9D3E-F421-7A02BBEC7714}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="38481000"/>
-          <a:ext cx="15819047" cy="12533333"/>
+          <a:off x="0" y="25908000"/>
+          <a:ext cx="32761904" cy="13333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -520,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AA194" sqref="AA194"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="AA118" sqref="AA118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
